--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_14_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3076212.592090849</v>
+        <v>3073759.271138058</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8370563.241050573</v>
+        <v>8370563.241050574</v>
       </c>
     </row>
     <row r="11">
@@ -1154,49 +1154,49 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>6.05642108929943</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1215,64 +1215,64 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>5.309829763041575</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="F9" t="n">
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="V9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
+      <c r="W9" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1294,67 +1294,67 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="E10" t="n">
+      <c r="S10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="F10" t="n">
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="X10" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="G10" t="n">
-        <v>3.334980354192922</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.721440735106512</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>288.4750456637369</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>247.6326277687279</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
         <v>280.7771218515423</v>
@@ -1433,7 +1433,7 @@
         <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>192.1011956044351</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C13" t="n">
         <v>120.2716844800353</v>
@@ -1534,19 +1534,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572815</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T13" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U13" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V13" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W13" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X13" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="14">
@@ -1610,19 +1610,19 @@
         <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>173.0074566349068</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>122.9518004500988</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.2126251695833</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C16" t="n">
         <v>120.2716844800353</v>
@@ -1771,19 +1771,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G16" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T16" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U16" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V16" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W16" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X16" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="17">
@@ -1850,13 +1850,13 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E17" t="n">
-        <v>334.9552334536692</v>
+        <v>204.3004649982279</v>
       </c>
       <c r="F17" t="n">
         <v>359.9009091231189</v>
       </c>
       <c r="G17" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>247.6326277687279</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V17" t="n">
-        <v>209.3512583921596</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W17" t="n">
         <v>302.2658320988205</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2090,7 +2090,7 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F20" t="n">
-        <v>359.9009091231189</v>
+        <v>225.5225489625526</v>
       </c>
       <c r="G20" t="n">
         <v>363.9465890348609</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T20" t="n">
-        <v>84.77709853003327</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U20" t="n">
         <v>204.0200353403094</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2245,19 +2245,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F22" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G22" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S22" t="n">
         <v>142.7938887128493</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T23" t="n">
         <v>156.9428335210276</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2482,19 +2482,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F25" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G25" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S25" t="n">
         <v>142.7938887128493</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>36.8681053354949</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2767,7 +2767,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>270.0697021486469</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2889,7 +2889,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>15.11174121957113</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>171.9731989154905</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734102899</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,10 +3187,10 @@
         <v>178.0530096276417</v>
       </c>
       <c r="C34" t="n">
-        <v>165.4678505443322</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>146.8365024639168</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.2468377047326</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>87.15318211575175</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>187.9900547771463</v>
       </c>
       <c r="T34" t="n">
         <v>217.7699787218736</v>
@@ -3244,16 +3244,16 @@
         <v>284.4328676513173</v>
       </c>
       <c r="V34" t="n">
-        <v>250.3586727695324</v>
+        <v>245.2128516871821</v>
       </c>
       <c r="W34" t="n">
-        <v>67.90439289414432</v>
+        <v>284.7440277822954</v>
       </c>
       <c r="X34" t="n">
         <v>223.9306848347416</v>
       </c>
       <c r="Y34" t="n">
-        <v>216.8056827977992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3442,7 +3442,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247752</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3800,7 +3800,7 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988213</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X41" t="n">
         <v>322.7559640598765</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247752</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3983,7 +3983,7 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
-        <v>334.9552334536692</v>
+        <v>222.3648638926609</v>
       </c>
       <c r="F44" t="n">
         <v>359.9009091231189</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U44" t="n">
-        <v>91.42966577931372</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
         <v>280.7771218515423</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247744</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124553</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4778,46 +4778,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F8" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G8" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H8" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I8" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J8" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L8" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M8" t="n">
-        <v>13.8896123982571</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N8" t="n">
-        <v>13.8896123982571</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O8" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P8" t="n">
         <v>27.50418296684575</v>
@@ -4826,7 +4826,7 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R8" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S8" t="n">
         <v>21.38658590694733</v>
@@ -4844,10 +4844,10 @@
         <v>21.38658590694733</v>
       </c>
       <c r="X8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D9" t="n">
-        <v>15.19521781052957</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E9" t="n">
-        <v>8.2497170613261</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F9" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G9" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H9" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I9" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J9" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K9" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.5500836593369149</v>
+      </c>
+      <c r="M9" t="n">
         <v>7.357368943631237</v>
       </c>
-      <c r="L9" t="n">
-        <v>13.8896123982571</v>
-      </c>
-      <c r="M9" t="n">
-        <v>13.8896123982571</v>
-      </c>
       <c r="N9" t="n">
-        <v>20.69689768255142</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="O9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="P9" t="n">
         <v>27.50418296684575</v>
@@ -4905,28 +4905,28 @@
         <v>27.50418296684575</v>
       </c>
       <c r="R9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S9" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T9" t="n">
         <v>20.55868221764227</v>
       </c>
       <c r="U9" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V9" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="W9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.55868221764227</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24.75525293138463</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C10" t="n">
-        <v>24.75525293138463</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D10" t="n">
-        <v>17.80975218218115</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E10" t="n">
-        <v>10.86425143297768</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F10" t="n">
-        <v>3.91875068377421</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G10" t="n">
         <v>0.5500836593369149</v>
@@ -4969,43 +4969,43 @@
         <v>7.357368943631237</v>
       </c>
       <c r="M10" t="n">
-        <v>14.16465422792556</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="N10" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O10" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="P10" t="n">
-        <v>24.75525293138463</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.75525293138463</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R10" t="n">
-        <v>24.75525293138463</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S10" t="n">
-        <v>24.75525293138463</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T10" t="n">
-        <v>24.75525293138463</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U10" t="n">
-        <v>24.75525293138463</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V10" t="n">
-        <v>24.75525293138463</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W10" t="n">
-        <v>24.75525293138463</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="X10" t="n">
-        <v>24.75525293138463</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y10" t="n">
-        <v>24.75525293138463</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1950.764341967999</v>
+        <v>1655.288861588727</v>
       </c>
       <c r="C11" t="n">
-        <v>1629.25145797566</v>
+        <v>1333.775977596389</v>
       </c>
       <c r="D11" t="n">
-        <v>1318.435392316983</v>
+        <v>1022.959911937711</v>
       </c>
       <c r="E11" t="n">
-        <v>980.0967726668119</v>
+        <v>684.6212922875404</v>
       </c>
       <c r="F11" t="n">
-        <v>688.7078376529363</v>
+        <v>321.0850204460062</v>
       </c>
       <c r="G11" t="n">
-        <v>321.0850204460061</v>
+        <v>321.0850204460062</v>
       </c>
       <c r="H11" t="n">
         <v>70.95105300284661</v>
@@ -5039,52 +5039,52 @@
         <v>70.95105300284661</v>
       </c>
       <c r="J11" t="n">
-        <v>412.2788202501152</v>
+        <v>427.2358329822251</v>
       </c>
       <c r="K11" t="n">
-        <v>746.0981939399617</v>
+        <v>761.0552066720716</v>
       </c>
       <c r="L11" t="n">
-        <v>1197.132407188371</v>
+        <v>1212.08941992048</v>
       </c>
       <c r="M11" t="n">
-        <v>1730.664311860295</v>
+        <v>1745.621324592405</v>
       </c>
       <c r="N11" t="n">
-        <v>2277.443128919077</v>
+        <v>2292.400141651187</v>
       </c>
       <c r="O11" t="n">
-        <v>2780.415599798414</v>
+        <v>2795.372612530524</v>
       </c>
       <c r="P11" t="n">
-        <v>3175.189966155593</v>
+        <v>3190.146978887703</v>
       </c>
       <c r="Q11" t="n">
-        <v>3423.476327911275</v>
+        <v>3488.535583585528</v>
       </c>
       <c r="R11" t="n">
         <v>3547.55265014233</v>
       </c>
       <c r="S11" t="n">
-        <v>3547.55265014233</v>
+        <v>3484.711614617499</v>
       </c>
       <c r="T11" t="n">
-        <v>3547.55265014233</v>
+        <v>3326.183499949794</v>
       </c>
       <c r="U11" t="n">
-        <v>3547.55265014233</v>
+        <v>3120.102656171704</v>
       </c>
       <c r="V11" t="n">
-        <v>3263.939395746833</v>
+        <v>2836.489401776206</v>
       </c>
       <c r="W11" t="n">
-        <v>2958.620373424792</v>
+        <v>2531.170379454165</v>
       </c>
       <c r="X11" t="n">
-        <v>2632.604248111785</v>
+        <v>2337.128767732514</v>
       </c>
       <c r="Y11" t="n">
-        <v>2289.914549084047</v>
+        <v>1994.439068704776</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>945.9827910517715</v>
+        <v>945.9827910517718</v>
       </c>
       <c r="C12" t="n">
-        <v>771.5297617706445</v>
+        <v>771.5297617706448</v>
       </c>
       <c r="D12" t="n">
-        <v>622.5953521093934</v>
+        <v>622.5953521093935</v>
       </c>
       <c r="E12" t="n">
-        <v>463.3578971039378</v>
+        <v>463.357897103938</v>
       </c>
       <c r="F12" t="n">
-        <v>316.8233391308229</v>
+        <v>316.823339130823</v>
       </c>
       <c r="G12" t="n">
-        <v>180.4602389634416</v>
+        <v>180.4602389634411</v>
       </c>
       <c r="H12" t="n">
-        <v>89.95834460130865</v>
+        <v>89.95834460130862</v>
       </c>
       <c r="I12" t="n">
         <v>70.95105300284661</v>
       </c>
       <c r="J12" t="n">
-        <v>164.6283224934641</v>
+        <v>164.6283224934639</v>
       </c>
       <c r="K12" t="n">
-        <v>402.8925214738112</v>
+        <v>402.8925214738111</v>
       </c>
       <c r="L12" t="n">
-        <v>769.5906817864766</v>
+        <v>769.5906817864765</v>
       </c>
       <c r="M12" t="n">
         <v>1216.867007008792</v>
@@ -5157,10 +5157,10 @@
         <v>1784.047283770528</v>
       </c>
       <c r="W12" t="n">
-        <v>1529.809927042326</v>
+        <v>1529.809927042327</v>
       </c>
       <c r="X12" t="n">
-        <v>1321.958426836793</v>
+        <v>1321.958426836794</v>
       </c>
       <c r="Y12" t="n">
         <v>1114.19812807184</v>
@@ -5176,7 +5176,7 @@
         <v>763.9051863759576</v>
       </c>
       <c r="C13" t="n">
-        <v>642.4186363961238</v>
+        <v>642.4186363961239</v>
       </c>
       <c r="D13" t="n">
         <v>539.7516299318614</v>
@@ -5185,46 +5185,46 @@
         <v>439.2881692975416</v>
       </c>
       <c r="F13" t="n">
-        <v>339.8478547477046</v>
+        <v>339.8478547477044</v>
       </c>
       <c r="G13" t="n">
         <v>219.5946510704966</v>
       </c>
       <c r="H13" t="n">
-        <v>120.827097236428</v>
+        <v>120.8270972364279</v>
       </c>
       <c r="I13" t="n">
         <v>70.95105300284661</v>
       </c>
       <c r="J13" t="n">
-        <v>162.5790707021888</v>
+        <v>162.5790707021887</v>
       </c>
       <c r="K13" t="n">
-        <v>413.0716389034718</v>
+        <v>413.0716389034717</v>
       </c>
       <c r="L13" t="n">
-        <v>776.1368226043746</v>
+        <v>776.1368226043742</v>
       </c>
       <c r="M13" t="n">
         <v>1166.79925345633</v>
       </c>
       <c r="N13" t="n">
-        <v>1554.713015414602</v>
+        <v>1554.713015414601</v>
       </c>
       <c r="O13" t="n">
-        <v>1900.547999587422</v>
+        <v>1900.547999587421</v>
       </c>
       <c r="P13" t="n">
-        <v>2179.660885273488</v>
+        <v>2179.660885273487</v>
       </c>
       <c r="Q13" t="n">
-        <v>2303.776566678409</v>
+        <v>2303.776566678408</v>
       </c>
       <c r="R13" t="n">
-        <v>2261.39574238401</v>
+        <v>2261.395742384009</v>
       </c>
       <c r="S13" t="n">
-        <v>2117.15949115891</v>
+        <v>2117.159491158909</v>
       </c>
       <c r="T13" t="n">
         <v>1942.842508676509</v>
@@ -5242,7 +5242,7 @@
         <v>1071.446964453581</v>
       </c>
       <c r="Y13" t="n">
-        <v>898.1040182581239</v>
+        <v>898.104018258124</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1586.155383522203</v>
+        <v>1523.314347997372</v>
       </c>
       <c r="C14" t="n">
-        <v>1264.642499529865</v>
+        <v>1201.801464005033</v>
       </c>
       <c r="D14" t="n">
-        <v>1264.642499529865</v>
+        <v>1027.046457303107</v>
       </c>
       <c r="E14" t="n">
-        <v>926.3038798796938</v>
+        <v>688.7078376529364</v>
       </c>
       <c r="F14" t="n">
-        <v>562.7676080381596</v>
+        <v>688.7078376529364</v>
       </c>
       <c r="G14" t="n">
-        <v>195.1447908312293</v>
+        <v>321.0850204460061</v>
       </c>
       <c r="H14" t="n">
         <v>70.95105300284661</v>
@@ -5276,52 +5276,52 @@
         <v>70.95105300284661</v>
       </c>
       <c r="J14" t="n">
-        <v>412.2788202501152</v>
+        <v>259.8301839618721</v>
       </c>
       <c r="K14" t="n">
-        <v>746.0981939399617</v>
+        <v>593.6495576517186</v>
       </c>
       <c r="L14" t="n">
-        <v>1197.132407188371</v>
+        <v>1044.683770900127</v>
       </c>
       <c r="M14" t="n">
-        <v>1730.664311860295</v>
+        <v>1578.215675572052</v>
       </c>
       <c r="N14" t="n">
-        <v>2277.443128919077</v>
+        <v>2342.50238459333</v>
       </c>
       <c r="O14" t="n">
-        <v>2780.415599798414</v>
+        <v>2845.474855472667</v>
       </c>
       <c r="P14" t="n">
-        <v>3175.189966155593</v>
+        <v>3240.249221829845</v>
       </c>
       <c r="Q14" t="n">
-        <v>3423.476327911275</v>
+        <v>3488.535583585528</v>
       </c>
       <c r="R14" t="n">
         <v>3547.55265014233</v>
       </c>
       <c r="S14" t="n">
-        <v>3547.55265014233</v>
+        <v>3484.711614617499</v>
       </c>
       <c r="T14" t="n">
-        <v>3389.024535474626</v>
+        <v>3326.183499949794</v>
       </c>
       <c r="U14" t="n">
-        <v>3182.943691696535</v>
+        <v>3120.102656171704</v>
       </c>
       <c r="V14" t="n">
-        <v>2899.330437301038</v>
+        <v>2836.489401776206</v>
       </c>
       <c r="W14" t="n">
-        <v>2594.011414978997</v>
+        <v>2531.170379454165</v>
       </c>
       <c r="X14" t="n">
-        <v>2267.995289665991</v>
+        <v>2205.154254141159</v>
       </c>
       <c r="Y14" t="n">
-        <v>1925.305590638252</v>
+        <v>1862.464555113421</v>
       </c>
     </row>
     <row r="15">
@@ -5331,16 +5331,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>945.9827910517719</v>
+        <v>945.9827910517718</v>
       </c>
       <c r="C15" t="n">
-        <v>771.5297617706449</v>
+        <v>771.5297617706448</v>
       </c>
       <c r="D15" t="n">
-        <v>622.5953521093936</v>
+        <v>622.5953521093935</v>
       </c>
       <c r="E15" t="n">
-        <v>463.3578971039381</v>
+        <v>463.357897103938</v>
       </c>
       <c r="F15" t="n">
         <v>316.823339130823</v>
@@ -5349,7 +5349,7 @@
         <v>180.4602389634411</v>
       </c>
       <c r="H15" t="n">
-        <v>89.95834460130865</v>
+        <v>89.95834460130862</v>
       </c>
       <c r="I15" t="n">
         <v>70.95105300284661</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.9051863759573</v>
+        <v>763.9051863759576</v>
       </c>
       <c r="C16" t="n">
-        <v>642.4186363961237</v>
+        <v>642.4186363961239</v>
       </c>
       <c r="D16" t="n">
-        <v>539.7516299318613</v>
+        <v>539.7516299318614</v>
       </c>
       <c r="E16" t="n">
-        <v>439.2881692975415</v>
+        <v>439.2881692975416</v>
       </c>
       <c r="F16" t="n">
         <v>339.8478547477044</v>
@@ -5428,7 +5428,7 @@
         <v>219.5946510704966</v>
       </c>
       <c r="H16" t="n">
-        <v>120.8270972364278</v>
+        <v>120.8270972364279</v>
       </c>
       <c r="I16" t="n">
         <v>70.95105300284661</v>
@@ -5437,25 +5437,25 @@
         <v>162.5790707021887</v>
       </c>
       <c r="K16" t="n">
-        <v>413.0716389034717</v>
+        <v>413.0716389034716</v>
       </c>
       <c r="L16" t="n">
-        <v>776.1368226043746</v>
+        <v>776.1368226043742</v>
       </c>
       <c r="M16" t="n">
         <v>1166.79925345633</v>
       </c>
       <c r="N16" t="n">
-        <v>1554.713015414602</v>
+        <v>1554.713015414601</v>
       </c>
       <c r="O16" t="n">
-        <v>1900.547999587422</v>
+        <v>1900.547999587421</v>
       </c>
       <c r="P16" t="n">
-        <v>2179.660885273488</v>
+        <v>2179.660885273487</v>
       </c>
       <c r="Q16" t="n">
-        <v>2303.776566678409</v>
+        <v>2303.776566678408</v>
       </c>
       <c r="R16" t="n">
         <v>2261.39574238401</v>
@@ -5476,10 +5476,10 @@
         <v>1251.986882403525</v>
       </c>
       <c r="X16" t="n">
-        <v>1071.44696445358</v>
+        <v>1071.446964453581</v>
       </c>
       <c r="Y16" t="n">
-        <v>898.1040182581237</v>
+        <v>898.104018258124</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2022.911678795658</v>
+        <v>1523.314347997372</v>
       </c>
       <c r="C17" t="n">
-        <v>1701.398794803319</v>
+        <v>1201.801464005033</v>
       </c>
       <c r="D17" t="n">
-        <v>1390.582729144642</v>
+        <v>890.9853983463563</v>
       </c>
       <c r="E17" t="n">
-        <v>1052.244109494471</v>
+        <v>684.6212922875404</v>
       </c>
       <c r="F17" t="n">
-        <v>688.7078376529365</v>
+        <v>321.0850204460061</v>
       </c>
       <c r="G17" t="n">
         <v>321.0850204460061</v>
@@ -5516,49 +5516,49 @@
         <v>427.2358329822251</v>
       </c>
       <c r="K17" t="n">
-        <v>761.0552066720716</v>
+        <v>811.1574496142143</v>
       </c>
       <c r="L17" t="n">
-        <v>1212.08941992048</v>
+        <v>1262.191662862623</v>
       </c>
       <c r="M17" t="n">
-        <v>1745.621324592405</v>
+        <v>1795.723567534548</v>
       </c>
       <c r="N17" t="n">
-        <v>2292.400141651187</v>
+        <v>2342.50238459333</v>
       </c>
       <c r="O17" t="n">
-        <v>2795.372612530524</v>
+        <v>2845.474855472667</v>
       </c>
       <c r="P17" t="n">
-        <v>3190.146978887703</v>
+        <v>3240.249221829845</v>
       </c>
       <c r="Q17" t="n">
-        <v>3438.433340643385</v>
+        <v>3488.535583585528</v>
       </c>
       <c r="R17" t="n">
         <v>3547.55265014233</v>
       </c>
       <c r="S17" t="n">
-        <v>3547.55265014233</v>
+        <v>3484.711614617499</v>
       </c>
       <c r="T17" t="n">
-        <v>3547.55265014233</v>
+        <v>3326.183499949794</v>
       </c>
       <c r="U17" t="n">
-        <v>3547.55265014233</v>
+        <v>3120.102656171704</v>
       </c>
       <c r="V17" t="n">
-        <v>3336.086732574492</v>
+        <v>2836.489401776206</v>
       </c>
       <c r="W17" t="n">
-        <v>3030.767710252451</v>
+        <v>2531.170379454165</v>
       </c>
       <c r="X17" t="n">
-        <v>2704.751584939444</v>
+        <v>2205.154254141159</v>
       </c>
       <c r="Y17" t="n">
-        <v>2362.061885911706</v>
+        <v>1862.46455511342</v>
       </c>
     </row>
     <row r="18">
@@ -5568,16 +5568,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>945.9827910517719</v>
+        <v>945.9827910517718</v>
       </c>
       <c r="C18" t="n">
-        <v>771.5297617706449</v>
+        <v>771.5297617706448</v>
       </c>
       <c r="D18" t="n">
-        <v>622.5953521093936</v>
+        <v>622.5953521093935</v>
       </c>
       <c r="E18" t="n">
-        <v>463.3578971039381</v>
+        <v>463.357897103938</v>
       </c>
       <c r="F18" t="n">
         <v>316.823339130823</v>
@@ -5586,7 +5586,7 @@
         <v>180.4602389634411</v>
       </c>
       <c r="H18" t="n">
-        <v>89.95834460130865</v>
+        <v>89.95834460130862</v>
       </c>
       <c r="I18" t="n">
         <v>70.95105300284661</v>
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1775.098683720278</v>
+        <v>1639.362966386373</v>
       </c>
       <c r="C20" t="n">
-        <v>1453.58579972794</v>
+        <v>1317.850082394034</v>
       </c>
       <c r="D20" t="n">
-        <v>1142.769734069262</v>
+        <v>1007.034016735357</v>
       </c>
       <c r="E20" t="n">
-        <v>804.4311144190915</v>
+        <v>668.695397085186</v>
       </c>
       <c r="F20" t="n">
-        <v>440.8948425775566</v>
+        <v>440.8948425775569</v>
       </c>
       <c r="G20" t="n">
-        <v>73.27202537062638</v>
+        <v>73.27202537062662</v>
       </c>
       <c r="H20" t="n">
-        <v>73.27202537062638</v>
+        <v>73.27202537062662</v>
       </c>
       <c r="I20" t="n">
-        <v>73.27202537062638</v>
+        <v>73.27202537062662</v>
       </c>
       <c r="J20" t="n">
-        <v>429.5568053500049</v>
+        <v>262.1511563296521</v>
       </c>
       <c r="K20" t="n">
-        <v>763.3761790398514</v>
+        <v>595.9705300194985</v>
       </c>
       <c r="L20" t="n">
-        <v>1214.41039228826</v>
+        <v>1047.004743267907</v>
       </c>
       <c r="M20" t="n">
-        <v>1747.942296960185</v>
+        <v>1580.536647939832</v>
       </c>
       <c r="N20" t="n">
-        <v>2294.721114018967</v>
+        <v>2127.315464998614</v>
       </c>
       <c r="O20" t="n">
-        <v>2797.693584898304</v>
+        <v>2961.523473861668</v>
       </c>
       <c r="P20" t="n">
-        <v>3192.467951255482</v>
+        <v>3356.297840218846</v>
       </c>
       <c r="Q20" t="n">
-        <v>3604.584201974516</v>
+        <v>3604.584201974528</v>
       </c>
       <c r="R20" t="n">
-        <v>3663.601268531319</v>
+        <v>3663.601268531331</v>
       </c>
       <c r="S20" t="n">
-        <v>3663.601268531319</v>
+        <v>3600.760233006499</v>
       </c>
       <c r="T20" t="n">
-        <v>3577.967835672699</v>
+        <v>3442.232118338794</v>
       </c>
       <c r="U20" t="n">
-        <v>3371.886991894609</v>
+        <v>3236.151274560704</v>
       </c>
       <c r="V20" t="n">
-        <v>3088.273737499112</v>
+        <v>2952.538020165207</v>
       </c>
       <c r="W20" t="n">
-        <v>2782.954715177071</v>
+        <v>2647.218997843166</v>
       </c>
       <c r="X20" t="n">
-        <v>2456.938589864065</v>
+        <v>2321.202872530159</v>
       </c>
       <c r="Y20" t="n">
-        <v>2114.248890836327</v>
+        <v>1978.513173502421</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>948.3037634195515</v>
+        <v>948.3037634195517</v>
       </c>
       <c r="C21" t="n">
-        <v>773.8507341384245</v>
+        <v>773.8507341384247</v>
       </c>
       <c r="D21" t="n">
-        <v>624.9163244771732</v>
+        <v>624.9163244771735</v>
       </c>
       <c r="E21" t="n">
-        <v>465.6788694717178</v>
+        <v>465.678869471718</v>
       </c>
       <c r="F21" t="n">
-        <v>319.1443114986028</v>
+        <v>319.144311498603</v>
       </c>
       <c r="G21" t="n">
-        <v>182.7812113312209</v>
+        <v>182.7812113312211</v>
       </c>
       <c r="H21" t="n">
-        <v>92.27931696908843</v>
+        <v>92.27931696908865</v>
       </c>
       <c r="I21" t="n">
-        <v>73.27202537062638</v>
+        <v>73.27202537062662</v>
       </c>
       <c r="J21" t="n">
-        <v>166.9492948612437</v>
+        <v>166.949294861244</v>
       </c>
       <c r="K21" t="n">
-        <v>405.2134938415909</v>
+        <v>405.2134938415911</v>
       </c>
       <c r="L21" t="n">
-        <v>771.9116541542562</v>
+        <v>771.9116541542564</v>
       </c>
       <c r="M21" t="n">
         <v>1219.187979376572</v>
       </c>
       <c r="N21" t="n">
-        <v>1692.711022931026</v>
+        <v>1692.711022931027</v>
       </c>
       <c r="O21" t="n">
         <v>2103.672302349081</v>
@@ -5862,7 +5862,7 @@
         <v>2249.588211235635</v>
       </c>
       <c r="U21" t="n">
-        <v>2021.52036437005</v>
+        <v>2021.520364370051</v>
       </c>
       <c r="V21" t="n">
         <v>1786.368256138308</v>
@@ -5871,10 +5871,10 @@
         <v>1532.130899410106</v>
       </c>
       <c r="X21" t="n">
-        <v>1324.279399204573</v>
+        <v>1324.279399204574</v>
       </c>
       <c r="Y21" t="n">
-        <v>1116.519100439619</v>
+        <v>1116.51910043962</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>766.2261587437374</v>
+        <v>766.2261587437376</v>
       </c>
       <c r="C22" t="n">
-        <v>644.7396087639038</v>
+        <v>644.739608763904</v>
       </c>
       <c r="D22" t="n">
-        <v>542.0726022996414</v>
+        <v>542.0726022996416</v>
       </c>
       <c r="E22" t="n">
-        <v>441.6091416653215</v>
+        <v>441.6091416653218</v>
       </c>
       <c r="F22" t="n">
-        <v>342.1688271154844</v>
+        <v>342.1688271154847</v>
       </c>
       <c r="G22" t="n">
-        <v>221.9156234382767</v>
+        <v>221.9156234382769</v>
       </c>
       <c r="H22" t="n">
-        <v>123.1480696042077</v>
+        <v>123.148069604208</v>
       </c>
       <c r="I22" t="n">
-        <v>73.27202537062638</v>
+        <v>73.27202537062662</v>
       </c>
       <c r="J22" t="n">
-        <v>164.9000430699687</v>
+        <v>164.9000430699688</v>
       </c>
       <c r="K22" t="n">
-        <v>415.3926112712516</v>
+        <v>415.3926112712518</v>
       </c>
       <c r="L22" t="n">
-        <v>778.457794972154</v>
+        <v>778.4577949721545</v>
       </c>
       <c r="M22" t="n">
         <v>1169.12022582411</v>
@@ -5929,13 +5929,13 @@
         <v>2181.981857641267</v>
       </c>
       <c r="Q22" t="n">
-        <v>2306.097539046188</v>
+        <v>2306.097539046189</v>
       </c>
       <c r="R22" t="n">
-        <v>2263.716714751789</v>
+        <v>2263.71671475179</v>
       </c>
       <c r="S22" t="n">
-        <v>2119.480463526689</v>
+        <v>2119.48046352669</v>
       </c>
       <c r="T22" t="n">
         <v>1945.163481044289</v>
@@ -5953,7 +5953,7 @@
         <v>1073.767936821361</v>
       </c>
       <c r="Y22" t="n">
-        <v>900.4249906259038</v>
+        <v>900.424990625904</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467787</v>
+        <v>698.9037015467791</v>
       </c>
       <c r="G23" t="n">
         <v>331.2808843398487</v>
@@ -5987,28 +5987,28 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J23" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K23" t="n">
-        <v>771.2510705659141</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L23" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M23" t="n">
-        <v>1755.817188486248</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N23" t="n">
-        <v>2302.59600554503</v>
+        <v>2475.30339983534</v>
       </c>
       <c r="O23" t="n">
-        <v>2805.568476424367</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P23" t="n">
-        <v>3474.791320094414</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q23" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R23" t="n">
         <v>4057.345844834458</v>
@@ -6017,19 +6017,19 @@
         <v>3994.504809309626</v>
       </c>
       <c r="T23" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U23" t="n">
         <v>3629.895850863831</v>
       </c>
       <c r="V23" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W23" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X23" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y23" t="n">
         <v>2372.257749805548</v>
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456147</v>
       </c>
       <c r="C24" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644877</v>
       </c>
       <c r="D24" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032365</v>
       </c>
       <c r="E24" t="n">
-        <v>473.5537609977806</v>
+        <v>473.553760997781</v>
       </c>
       <c r="F24" t="n">
-        <v>327.0192030246656</v>
+        <v>327.019203024666</v>
       </c>
       <c r="G24" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572846</v>
       </c>
       <c r="H24" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I24" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J24" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873068</v>
       </c>
       <c r="K24" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L24" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M24" t="n">
         <v>1227.062870902635</v>
@@ -6081,25 +6081,25 @@
         <v>1700.58591445709</v>
       </c>
       <c r="O24" t="n">
-        <v>2111.547193875144</v>
+        <v>2111.547193875145</v>
       </c>
       <c r="P24" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351248</v>
       </c>
       <c r="Q24" t="n">
         <v>2579.688342997847</v>
       </c>
       <c r="R24" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590363</v>
       </c>
       <c r="S24" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083843</v>
       </c>
       <c r="T24" t="n">
         <v>2257.463102761698</v>
       </c>
       <c r="U24" t="n">
-        <v>2029.395255896113</v>
+        <v>2029.395255896114</v>
       </c>
       <c r="V24" t="n">
         <v>1794.243147664371</v>
@@ -6108,10 +6108,10 @@
         <v>1540.005790936169</v>
       </c>
       <c r="X24" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730637</v>
       </c>
       <c r="Y24" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="25">
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C25" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D25" t="n">
         <v>549.9474938257041</v>
@@ -6145,13 +6145,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J25" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K25" t="n">
         <v>423.2675027973144</v>
       </c>
       <c r="L25" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M25" t="n">
         <v>1176.995117350173</v>
@@ -6166,28 +6166,28 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q25" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R25" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S25" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T25" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U25" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V25" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W25" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X25" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y25" t="n">
         <v>908.2998821519666</v>
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,28 +6224,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6263,13 +6263,13 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="27">
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839442</v>
+        <v>399.0634049978498</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839442</v>
+        <v>230.1272220699429</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839442</v>
+        <v>230.1272220699429</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>230.1272220699429</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6385,13 +6385,13 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N28" t="n">
         <v>1346.796070598116</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>725.9916293201816</v>
+        <v>619.85598414138</v>
       </c>
       <c r="X28" t="n">
-        <v>498.0020784221642</v>
+        <v>619.85598414138</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>399.0634049978498</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6449,10 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6461,19 +6461,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1088.893283004706</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>1622.425187676631</v>
       </c>
       <c r="N29" t="n">
-        <v>2979.169639353395</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O29" t="n">
         <v>3482.142110232732</v>
@@ -6500,7 +6500,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
         <v>3150.95552873011</v>
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E30" t="n">
         <v>487.9678785494859</v>
@@ -6531,7 +6531,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6543,10 +6543,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>263.2638710736754</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6625,7 +6625,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892251</v>
@@ -6640,7 +6640,7 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
         <v>1866.513008862231</v>
@@ -6652,19 +6652,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1437.79612418831</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>1183.111635982423</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W31" t="n">
-        <v>893.6944659454624</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X31" t="n">
-        <v>665.7049150474452</v>
+        <v>446.1456822065411</v>
       </c>
       <c r="Y31" t="n">
-        <v>444.9123359039152</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="32">
@@ -6683,13 +6683,13 @@
         <v>1637.453357714508</v>
       </c>
       <c r="E32" t="n">
-        <v>1253.462045070097</v>
+        <v>1253.462045070098</v>
       </c>
       <c r="F32" t="n">
-        <v>844.2730802343239</v>
+        <v>844.273080234324</v>
       </c>
       <c r="G32" t="n">
-        <v>430.9975700331543</v>
+        <v>430.9975700331537</v>
       </c>
       <c r="H32" t="n">
         <v>135.2109095957549</v>
@@ -6698,19 +6698,19 @@
         <v>95.0109507890575</v>
       </c>
       <c r="J32" t="n">
-        <v>451.295730768436</v>
+        <v>283.8900817480829</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.019062903736</v>
+        <v>938.6134138833825</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.053276152144</v>
+        <v>1389.647627131791</v>
       </c>
       <c r="M32" t="n">
-        <v>2090.585180824069</v>
+        <v>1971.913184159902</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.363997882851</v>
+        <v>2951.665456386549</v>
       </c>
       <c r="O32" t="n">
         <v>3454.637927265886</v>
@@ -6728,22 +6728,22 @@
         <v>4642.053810933804</v>
       </c>
       <c r="T32" t="n">
-        <v>4437.873003271859</v>
+        <v>4437.87300327186</v>
       </c>
       <c r="U32" t="n">
-        <v>4186.139466499531</v>
+        <v>4186.13946649953</v>
       </c>
       <c r="V32" t="n">
-        <v>3856.873519109795</v>
+        <v>3856.873519109794</v>
       </c>
       <c r="W32" t="n">
-        <v>3505.901803793515</v>
+        <v>3505.901803793514</v>
       </c>
       <c r="X32" t="n">
-        <v>3134.232985486269</v>
+        <v>3134.232985486268</v>
       </c>
       <c r="Y32" t="n">
-        <v>2745.890593464291</v>
+        <v>2745.89059346429</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.0426888379826</v>
+        <v>970.0426888379827</v>
       </c>
       <c r="C33" t="n">
-        <v>795.5896595568556</v>
+        <v>795.5896595568557</v>
       </c>
       <c r="D33" t="n">
-        <v>646.6552498956044</v>
+        <v>646.6552498956045</v>
       </c>
       <c r="E33" t="n">
-        <v>487.4177948901489</v>
+        <v>487.417794890149</v>
       </c>
       <c r="F33" t="n">
-        <v>340.8832369170339</v>
+        <v>340.883236917034</v>
       </c>
       <c r="G33" t="n">
-        <v>204.520136749652</v>
+        <v>204.5201367496521</v>
       </c>
       <c r="H33" t="n">
-        <v>114.0182423875195</v>
+        <v>114.0182423875196</v>
       </c>
       <c r="I33" t="n">
         <v>95.0109507890575</v>
@@ -6801,10 +6801,10 @@
         <v>2593.552376890215</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.40802348273</v>
+        <v>2593.408023482731</v>
       </c>
       <c r="S33" t="n">
-        <v>2463.97013697621</v>
+        <v>2463.970136976211</v>
       </c>
       <c r="T33" t="n">
         <v>2271.327136654066</v>
@@ -6816,10 +6816,10 @@
         <v>1808.107181556739</v>
       </c>
       <c r="W33" t="n">
-        <v>1553.869824828537</v>
+        <v>1553.869824828538</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.018324623004</v>
+        <v>1346.018324623005</v>
       </c>
       <c r="Y33" t="n">
         <v>1138.258025858051</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>428.0560904345776</v>
+        <v>243.3306502475593</v>
       </c>
       <c r="C34" t="n">
-        <v>260.9168474605046</v>
+        <v>243.3306502475593</v>
       </c>
       <c r="D34" t="n">
-        <v>260.9168474605046</v>
+        <v>95.0109507890575</v>
       </c>
       <c r="E34" t="n">
-        <v>260.9168474605046</v>
+        <v>95.0109507890575</v>
       </c>
       <c r="F34" t="n">
-        <v>260.9168474605046</v>
+        <v>95.0109507890575</v>
       </c>
       <c r="G34" t="n">
         <v>95.0109507890575</v>
@@ -6859,10 +6859,10 @@
         <v>141.8947640847457</v>
       </c>
       <c r="K34" t="n">
-        <v>347.6431278823747</v>
+        <v>347.6431278823748</v>
       </c>
       <c r="L34" t="n">
-        <v>665.9641071796234</v>
+        <v>665.9641071796235</v>
       </c>
       <c r="M34" t="n">
         <v>1011.882333627925</v>
@@ -6871,37 +6871,37 @@
         <v>1355.051891182542</v>
       </c>
       <c r="O34" t="n">
-        <v>1656.142670951708</v>
+        <v>1656.142670951709</v>
       </c>
       <c r="P34" t="n">
-        <v>1890.51135223412</v>
+        <v>1890.511352234121</v>
       </c>
       <c r="Q34" t="n">
         <v>1969.882829235388</v>
       </c>
       <c r="R34" t="n">
-        <v>1881.849311946749</v>
+        <v>1881.84931194675</v>
       </c>
       <c r="S34" t="n">
-        <v>1881.849311946749</v>
+        <v>1691.96036772741</v>
       </c>
       <c r="T34" t="n">
-        <v>1661.879636470109</v>
+        <v>1471.99069225077</v>
       </c>
       <c r="U34" t="n">
-        <v>1374.573709549587</v>
+        <v>1184.684765330248</v>
       </c>
       <c r="V34" t="n">
-        <v>1121.686161297534</v>
+        <v>936.9950161512753</v>
       </c>
       <c r="W34" t="n">
-        <v>1053.095865444863</v>
+        <v>649.3747860681485</v>
       </c>
       <c r="X34" t="n">
-        <v>826.9032545006795</v>
+        <v>423.1821751239651</v>
       </c>
       <c r="Y34" t="n">
-        <v>607.9076153109834</v>
+        <v>423.1821751239651</v>
       </c>
     </row>
     <row r="35">
@@ -6911,67 +6911,67 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K35" t="n">
-        <v>771.2510705659141</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L35" t="n">
-        <v>1222.285283814323</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M35" t="n">
-        <v>1755.817188486248</v>
+        <v>2305.516762226675</v>
       </c>
       <c r="N35" t="n">
-        <v>2302.59600554503</v>
+        <v>2852.295579285457</v>
       </c>
       <c r="O35" t="n">
-        <v>2805.568476424367</v>
+        <v>3355.268050164794</v>
       </c>
       <c r="P35" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521972</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W35" t="n">
         <v>3040.963574146293</v>
@@ -7011,7 +7011,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
         <v>174.8241863873065</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698005</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899668</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913846</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415475</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643398</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302707</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N37" t="n">
         <v>1564.908879308444</v>
@@ -7114,13 +7114,13 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q37" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T37" t="n">
         <v>1953.038372570352</v>
@@ -7135,10 +7135,10 @@
         <v>1262.182746297368</v>
       </c>
       <c r="X37" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519668</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467798</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K38" t="n">
-        <v>771.2510705659141</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L38" t="n">
-        <v>1222.285283814323</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M38" t="n">
-        <v>1755.817188486248</v>
+        <v>2305.516762226675</v>
       </c>
       <c r="N38" t="n">
-        <v>2302.59600554503</v>
+        <v>2852.295579285457</v>
       </c>
       <c r="O38" t="n">
-        <v>2805.568476424367</v>
+        <v>3355.268050164794</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521972</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468332</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>956.1786549456147</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C39" t="n">
-        <v>781.7256256644877</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D39" t="n">
-        <v>632.7912160032365</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E39" t="n">
-        <v>473.553760997781</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F39" t="n">
-        <v>327.019203024666</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G39" t="n">
-        <v>190.6561028572846</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H39" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873068</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
@@ -7266,25 +7266,25 @@
         <v>1700.58591445709</v>
       </c>
       <c r="O39" t="n">
-        <v>2111.547193875145</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P39" t="n">
-        <v>2422.046785351248</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q39" t="n">
         <v>2579.688342997847</v>
       </c>
       <c r="R39" t="n">
-        <v>2579.543989590363</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S39" t="n">
-        <v>2450.106103083843</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T39" t="n">
         <v>2257.463102761698</v>
       </c>
       <c r="U39" t="n">
-        <v>2029.395255896114</v>
+        <v>2029.395255896113</v>
       </c>
       <c r="V39" t="n">
         <v>1794.243147664371</v>
@@ -7293,7 +7293,7 @@
         <v>1540.005790936169</v>
       </c>
       <c r="X39" t="n">
-        <v>1332.154290730637</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y39" t="n">
         <v>1124.393991965683</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D40" t="n">
-        <v>549.9474938257039</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E40" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F40" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643392</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0229611302702</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M40" t="n">
         <v>1176.995117350172</v>
@@ -7360,7 +7360,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U40" t="n">
         <v>1711.385138644068</v>
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D41" t="n">
         <v>1400.778593038484</v>
@@ -7397,16 +7397,16 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467787</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
         <v>437.4316968760676</v>
@@ -7424,28 +7424,28 @@
         <v>2302.59600554503</v>
       </c>
       <c r="O41" t="n">
-        <v>2805.568476424367</v>
+        <v>3182.560655874485</v>
       </c>
       <c r="P41" t="n">
-        <v>3518.923563871313</v>
+        <v>3577.335022231663</v>
       </c>
       <c r="Q41" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R41" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U41" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W41" t="n">
         <v>3040.963574146293</v>
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C42" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D42" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E42" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F42" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G42" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H42" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
         <v>174.8241863873065</v>
@@ -7533,7 +7533,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y42" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="43">
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698007</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899671</v>
       </c>
       <c r="D43" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257047</v>
       </c>
       <c r="E43" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913848</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415477</v>
       </c>
       <c r="G43" t="n">
-        <v>229.7905149643395</v>
+        <v>229.79051496434</v>
       </c>
       <c r="H43" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.774934596031</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973139</v>
+        <v>423.2675027973146</v>
       </c>
       <c r="L43" t="n">
-        <v>786.3326864982167</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N43" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O43" t="n">
         <v>1910.743863481264</v>
@@ -7588,31 +7588,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S43" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T43" t="n">
         <v>1953.038372570352</v>
       </c>
       <c r="U43" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V43" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W43" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X43" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519666</v>
+        <v>908.299882151967</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2030.78657032172</v>
+        <v>1917.058924300499</v>
       </c>
       <c r="C44" t="n">
-        <v>1709.273686329381</v>
+        <v>1595.546040308161</v>
       </c>
       <c r="D44" t="n">
-        <v>1398.457620670704</v>
+        <v>1284.729974649484</v>
       </c>
       <c r="E44" t="n">
         <v>1060.119001020533</v>
       </c>
       <c r="F44" t="n">
-        <v>696.5827291789992</v>
+        <v>696.582729178999</v>
       </c>
       <c r="G44" t="n">
-        <v>328.9599119720689</v>
+        <v>328.9599119720687</v>
       </c>
       <c r="H44" t="n">
-        <v>78.82594452890942</v>
+        <v>78.82594452890915</v>
       </c>
       <c r="I44" t="n">
-        <v>78.82594452890942</v>
+        <v>78.82594452890915</v>
       </c>
       <c r="J44" t="n">
-        <v>364.0842376799265</v>
+        <v>267.7050754879346</v>
       </c>
       <c r="K44" t="n">
-        <v>697.903611369773</v>
+        <v>601.5244491777811</v>
       </c>
       <c r="L44" t="n">
-        <v>1148.937824618182</v>
+        <v>1052.55866242619</v>
       </c>
       <c r="M44" t="n">
-        <v>2124.408888163436</v>
+        <v>2028.029725971441</v>
       </c>
       <c r="N44" t="n">
-        <v>2671.187705222218</v>
+        <v>2671.187705222204</v>
       </c>
       <c r="O44" t="n">
-        <v>3174.160176101555</v>
+        <v>3174.160176101541</v>
       </c>
       <c r="P44" t="n">
-        <v>3568.934542458733</v>
+        <v>3568.93454245872</v>
       </c>
       <c r="Q44" t="n">
-        <v>3817.220904214415</v>
+        <v>3817.220904214402</v>
       </c>
       <c r="R44" t="n">
-        <v>3941.297226445471</v>
+        <v>3941.297226445457</v>
       </c>
       <c r="S44" t="n">
-        <v>3878.456190920639</v>
+        <v>3878.456190920625</v>
       </c>
       <c r="T44" t="n">
-        <v>3719.928076252934</v>
+        <v>3719.928076252921</v>
       </c>
       <c r="U44" t="n">
-        <v>3627.574878496051</v>
+        <v>3513.847232474831</v>
       </c>
       <c r="V44" t="n">
-        <v>3343.961624100554</v>
+        <v>3230.233978079334</v>
       </c>
       <c r="W44" t="n">
-        <v>3038.642601778513</v>
+        <v>2924.914955757293</v>
       </c>
       <c r="X44" t="n">
-        <v>2712.626476465507</v>
+        <v>2598.898830444286</v>
       </c>
       <c r="Y44" t="n">
-        <v>2369.936777437768</v>
+        <v>2256.209131416548</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>953.8576825778347</v>
+        <v>953.8576825778343</v>
       </c>
       <c r="C45" t="n">
-        <v>779.4046532967077</v>
+        <v>779.4046532967074</v>
       </c>
       <c r="D45" t="n">
-        <v>630.4702436354564</v>
+        <v>630.4702436354561</v>
       </c>
       <c r="E45" t="n">
-        <v>471.2327886300009</v>
+        <v>471.2327886300006</v>
       </c>
       <c r="F45" t="n">
-        <v>324.6982306568858</v>
+        <v>324.6982306568856</v>
       </c>
       <c r="G45" t="n">
-        <v>188.3351304895039</v>
+        <v>188.3351304895037</v>
       </c>
       <c r="H45" t="n">
-        <v>97.83323612737146</v>
+        <v>97.83323612737121</v>
       </c>
       <c r="I45" t="n">
-        <v>78.82594452890942</v>
+        <v>78.82594452890915</v>
       </c>
       <c r="J45" t="n">
-        <v>172.5032140195268</v>
+        <v>172.5032140195265</v>
       </c>
       <c r="K45" t="n">
-        <v>410.7674129998739</v>
+        <v>410.7674129998736</v>
       </c>
       <c r="L45" t="n">
-        <v>777.4655733125393</v>
+        <v>777.4655733125389</v>
       </c>
       <c r="M45" t="n">
         <v>1224.741898534855</v>
       </c>
       <c r="N45" t="n">
-        <v>1698.26494208931</v>
+        <v>1698.264942089309</v>
       </c>
       <c r="O45" t="n">
-        <v>2109.226221507365</v>
+        <v>2109.226221507364</v>
       </c>
       <c r="P45" t="n">
-        <v>2419.725812983468</v>
+        <v>2419.725812983467</v>
       </c>
       <c r="Q45" t="n">
         <v>2577.367370630067</v>
@@ -7758,7 +7758,7 @@
         <v>2255.142130393918</v>
       </c>
       <c r="U45" t="n">
-        <v>2027.074283528334</v>
+        <v>2027.074283528333</v>
       </c>
       <c r="V45" t="n">
         <v>1791.922175296591</v>
@@ -7767,10 +7767,10 @@
         <v>1537.684818568389</v>
       </c>
       <c r="X45" t="n">
-        <v>1329.833318362857</v>
+        <v>1329.833318362856</v>
       </c>
       <c r="Y45" t="n">
-        <v>1122.073019597903</v>
+        <v>1122.073019597902</v>
       </c>
     </row>
     <row r="46">
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>771.7800779020204</v>
+        <v>771.7800779020195</v>
       </c>
       <c r="C46" t="n">
-        <v>650.2935279221867</v>
+        <v>650.2935279221858</v>
       </c>
       <c r="D46" t="n">
-        <v>547.6265214579244</v>
+        <v>547.6265214579234</v>
       </c>
       <c r="E46" t="n">
-        <v>447.1630608236046</v>
+        <v>447.1630608236036</v>
       </c>
       <c r="F46" t="n">
-        <v>347.7227462737675</v>
+        <v>347.7227462737665</v>
       </c>
       <c r="G46" t="n">
-        <v>227.4695425965597</v>
+        <v>227.4695425965588</v>
       </c>
       <c r="H46" t="n">
-        <v>128.7019887624908</v>
+        <v>128.7019887624901</v>
       </c>
       <c r="I46" t="n">
-        <v>78.82594452890942</v>
+        <v>78.82594452890915</v>
       </c>
       <c r="J46" t="n">
-        <v>170.4539622282516</v>
+        <v>170.4539622282514</v>
       </c>
       <c r="K46" t="n">
-        <v>420.9465304295346</v>
+        <v>420.9465304295344</v>
       </c>
       <c r="L46" t="n">
-        <v>784.0117141304374</v>
+        <v>784.0117141304371</v>
       </c>
       <c r="M46" t="n">
         <v>1174.674144982393</v>
@@ -7825,31 +7825,31 @@
         <v>2187.53577679955</v>
       </c>
       <c r="Q46" t="n">
-        <v>2311.651458204472</v>
+        <v>2311.651458204471</v>
       </c>
       <c r="R46" t="n">
-        <v>2269.270633910073</v>
+        <v>2269.270633910072</v>
       </c>
       <c r="S46" t="n">
-        <v>2125.034382684973</v>
+        <v>2125.034382684971</v>
       </c>
       <c r="T46" t="n">
-        <v>1950.717400202572</v>
+        <v>1950.71740020257</v>
       </c>
       <c r="U46" t="n">
-        <v>1709.064166276289</v>
+        <v>1709.064166276287</v>
       </c>
       <c r="V46" t="n">
-        <v>1501.829311018475</v>
+        <v>1501.829311018474</v>
       </c>
       <c r="W46" t="n">
-        <v>1259.861773929588</v>
+        <v>1259.861773929586</v>
       </c>
       <c r="X46" t="n">
-        <v>1079.321855979643</v>
+        <v>1079.321855979642</v>
       </c>
       <c r="Y46" t="n">
-        <v>905.9789097841867</v>
+        <v>905.9789097841858</v>
       </c>
     </row>
   </sheetData>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>226.6880767567238</v>
+        <v>226.965896786692</v>
       </c>
       <c r="L8" t="n">
         <v>235.7664149699872</v>
@@ -8462,13 +8462,13 @@
         <v>237.2222789689842</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>236.2891093383024</v>
       </c>
       <c r="O8" t="n">
-        <v>236.9742571633982</v>
+        <v>236.69643713343</v>
       </c>
       <c r="P8" t="n">
-        <v>238.109041496981</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>144.7174847160704</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>145.1526054916175</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>149.0100796637298</v>
       </c>
       <c r="N9" t="n">
         <v>138.2177578250447</v>
@@ -8547,7 +8547,7 @@
         <v>149.4722901861559</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>140.5726331260735</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8617,13 +8617,13 @@
         <v>141.7607220229497</v>
       </c>
       <c r="M10" t="n">
-        <v>145.8018296893165</v>
+        <v>145.5240096593483</v>
       </c>
       <c r="N10" t="n">
         <v>134.5615902069446</v>
       </c>
       <c r="O10" t="n">
-        <v>145.0547641635861</v>
+        <v>145.3325841935542</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>153.9885215032759</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8708,10 +8708,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>50.60832620418458</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>153.9885215032759</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>219.7049413762583</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>50.60832620418461</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>50.60832620418464</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9413,13 +9413,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>334.5813514987038</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>165.4847363266182</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9647,19 +9647,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>343.5485285966295</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>277.2206841544135</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,22 +9872,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>73.34731650832759</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,22 +10109,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>19.79750571619286</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>344.7025836476837</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10355,13 +10355,13 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>49.22591147089554</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>317.4762207108057</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>-4.695133171139787e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,16 +10583,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>400.2032972882096</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>277.220684154414</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>400.2032972882096</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10838,13 +10838,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>277.2206841544144</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11072,16 +11072,16 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>167.7369666428369</v>
+        <v>174.4519134245549</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>97.35268908281984</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11303,10 +11303,10 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>446.403190781141</v>
+        <v>446.4031907811375</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>97.35268908280943</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -23267,10 +23267,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>71.42586345938201</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>130.6547684554414</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23498,19 +23498,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>134.7004483671836</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>124.6808273186291</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23738,13 +23738,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>130.6547684554413</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,16 +23780,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.2126251695833</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>71.42586345938274</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>134.3783601605663</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24017,10 +24017,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958328</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>72.16573499099431</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>108.5529426874363</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24619,7 +24619,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>16.14213605696598</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>271.1000969860418</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>53.73645647354661</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>165.4678505443322</v>
       </c>
       <c r="D34" t="n">
-        <v>146.8365024639168</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>144.6549920922736</v>
@@ -25087,7 +25087,7 @@
         <v>143.6420774686356</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.2468377047326</v>
       </c>
       <c r="H34" t="n">
         <v>142.9760443600252</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>187.9900547771463</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,16 +25132,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>5.145821082350366</v>
       </c>
       <c r="W34" t="n">
-        <v>216.8396348881511</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>216.8056827977992</v>
       </c>
     </row>
     <row r="35">
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>112.5903695610084</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25919,7 +25919,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>112.5903695609957</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>679080.9717137621</v>
+        <v>679080.9717137623</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>679080.9717137621</v>
+        <v>679080.9717137623</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>689899.2929042703</v>
+        <v>689899.2929042713</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>723634.6571984987</v>
+        <v>723634.6571984988</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>726605.0749514957</v>
+        <v>726605.0749514956</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>726605.0749514957</v>
+        <v>726605.0749514956</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>715786.7537609878</v>
+        <v>715786.7537609866</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>737348.7048453346</v>
       </c>
       <c r="C2" t="n">
-        <v>737348.7048453346</v>
+        <v>737348.7048453345</v>
       </c>
       <c r="D2" t="n">
-        <v>738333.9046792071</v>
+        <v>738333.9046792067</v>
       </c>
       <c r="E2" t="n">
-        <v>703504.3516272499</v>
+        <v>703504.3516272504</v>
       </c>
       <c r="F2" t="n">
-        <v>703504.3516272504</v>
+        <v>703504.3516272502</v>
       </c>
       <c r="G2" t="n">
-        <v>703504.3516272507</v>
+        <v>703504.3516272509</v>
       </c>
       <c r="H2" t="n">
-        <v>711570.3257026002</v>
+        <v>711570.3257026011</v>
       </c>
       <c r="I2" t="n">
-        <v>738937.5928778558</v>
+        <v>738937.5928778548</v>
       </c>
       <c r="J2" t="n">
-        <v>714747.2163965704</v>
+        <v>714747.2163965701</v>
       </c>
       <c r="K2" t="n">
-        <v>714747.2163965704</v>
+        <v>714747.2163965702</v>
       </c>
       <c r="L2" t="n">
         <v>715663.3173502926</v>
       </c>
       <c r="M2" t="n">
-        <v>738937.5928778555</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="N2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778558</v>
       </c>
       <c r="O2" t="n">
         <v>738937.5928778555</v>
       </c>
       <c r="P2" t="n">
-        <v>730871.6188025059</v>
+        <v>730871.6188025046</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26381,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>7827.740419728645</v>
+        <v>7827.740419729435</v>
       </c>
       <c r="I3" t="n">
-        <v>26176.23786877674</v>
+        <v>26176.23786877595</v>
       </c>
       <c r="J3" t="n">
         <v>47142.09215872966</v>
@@ -26396,7 +26396,7 @@
         <v>1423.176443436467</v>
       </c>
       <c r="M3" t="n">
-        <v>212272.3136285155</v>
+        <v>212272.3136285154</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>419946.1207682426</v>
       </c>
       <c r="E4" t="n">
+        <v>62532.93795530447</v>
+      </c>
+      <c r="F4" t="n">
+        <v>62532.93795530447</v>
+      </c>
+      <c r="G4" t="n">
         <v>62532.93795530449</v>
       </c>
-      <c r="F4" t="n">
-        <v>62532.93795530449</v>
-      </c>
-      <c r="G4" t="n">
-        <v>62532.93795530447</v>
-      </c>
       <c r="H4" t="n">
-        <v>65747.11098468411</v>
+        <v>65747.11098468443</v>
       </c>
       <c r="I4" t="n">
-        <v>76652.56781120098</v>
+        <v>76652.56781120101</v>
       </c>
       <c r="J4" t="n">
-        <v>49388.53342030739</v>
+        <v>49388.5334203074</v>
       </c>
       <c r="K4" t="n">
         <v>49388.53342030739</v>
       </c>
       <c r="L4" t="n">
-        <v>50424.48720748197</v>
+        <v>50424.48720748199</v>
       </c>
       <c r="M4" t="n">
-        <v>76652.56781120101</v>
+        <v>76652.56781120099</v>
       </c>
       <c r="N4" t="n">
         <v>76652.56781120101</v>
       </c>
       <c r="O4" t="n">
-        <v>76652.56781120102</v>
+        <v>76652.56781120101</v>
       </c>
       <c r="P4" t="n">
-        <v>73438.39478182145</v>
+        <v>73438.39478182109</v>
       </c>
     </row>
     <row r="5">
@@ -26485,7 +26485,7 @@
         <v>81629.08511548577</v>
       </c>
       <c r="H5" t="n">
-        <v>83393.02411499841</v>
+        <v>83393.02411499858</v>
       </c>
       <c r="I5" t="n">
         <v>89377.94167480612</v>
@@ -26500,16 +26500,16 @@
         <v>96115.01094814668</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="O5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="P5" t="n">
-        <v>87614.00267529351</v>
+        <v>87614.0026752933</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>283573.3359558034</v>
+        <v>283568.9223779353</v>
       </c>
       <c r="C6" t="n">
-        <v>283573.3359558034</v>
+        <v>283568.9223779351</v>
       </c>
       <c r="D6" t="n">
-        <v>282206.2142411207</v>
+        <v>282204.5373294574</v>
       </c>
       <c r="E6" t="n">
-        <v>-616519.9091332525</v>
+        <v>-616618.3348033925</v>
       </c>
       <c r="F6" t="n">
-        <v>559342.3285564601</v>
+        <v>559243.9028863193</v>
       </c>
       <c r="G6" t="n">
-        <v>559342.3285564603</v>
+        <v>559243.90288632</v>
       </c>
       <c r="H6" t="n">
-        <v>554602.450183189</v>
+        <v>554526.4299965908</v>
       </c>
       <c r="I6" t="n">
-        <v>546730.8455230719</v>
+        <v>546730.8455230717</v>
       </c>
       <c r="J6" t="n">
-        <v>521833.0725638198</v>
+        <v>521765.8770735935</v>
       </c>
       <c r="K6" t="n">
-        <v>568975.1647225495</v>
+        <v>568907.9692323235</v>
       </c>
       <c r="L6" t="n">
-        <v>567700.6427512275</v>
+        <v>567635.9919858731</v>
       </c>
       <c r="M6" t="n">
-        <v>360634.769763333</v>
+        <v>360634.7697633327</v>
       </c>
       <c r="N6" t="n">
-        <v>572907.083391848</v>
+        <v>572907.0833918487</v>
       </c>
       <c r="O6" t="n">
         <v>572907.0833918485</v>
       </c>
       <c r="P6" t="n">
-        <v>569819.221345391</v>
+        <v>569796.8158618476</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G2" t="n">
         <v>46.97513661859254</v>
       </c>
       <c r="H2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="I2" t="n">
         <v>46.97513661859255</v>
-      </c>
-      <c r="I2" t="n">
-        <v>46.97513661859254</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26719,13 +26719,13 @@
         <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="3">
@@ -26805,7 +26805,7 @@
         <v>886.8881625355825</v>
       </c>
       <c r="H4" t="n">
-        <v>915.9003171328297</v>
+        <v>915.9003171328327</v>
       </c>
       <c r="I4" t="n">
         <v>1014.336461208614</v>
@@ -26820,16 +26820,16 @@
         <v>1187.636884863219</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="O4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="P4" t="n">
-        <v>985.3243066113677</v>
+        <v>985.3243066113642</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.778970554295583</v>
+        <v>1.778970554295584</v>
       </c>
       <c r="M2" t="n">
-        <v>45.19616606429697</v>
+        <v>45.19616606429698</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27027,10 +27027,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>29.0121545972471</v>
+        <v>29.01215459725003</v>
       </c>
       <c r="I4" t="n">
-        <v>98.43614407578468</v>
+        <v>98.43614407578173</v>
       </c>
       <c r="J4" t="n">
         <v>180.1764693963158</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>706.7116931392669</v>
+        <v>706.7116931392667</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>29.0121545972471</v>
+        <v>29.01215459725003</v>
       </c>
     </row>
   </sheetData>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>5.073243612901081</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>143.8126968518503</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>202.9636484969459</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>362.8550549367576</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27935,13 +27935,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>142.1352358015972</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>150.7690347136895</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>138.1931666516724</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,22 +27977,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>93.2817884109317</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>193.2886829531102</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>219.8849609916754</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9245414077138</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>244.8189374192082</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28014,16 +28014,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>141.7394272765009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>139.5579169048577</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>138.5450022812198</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>164.6559990042658</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28050,16 +28050,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>170.417345635458</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>217.1405522952608</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>280.4665772472916</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>218.8336096473257</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="17">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="26">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859222</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
   </sheetData>
@@ -32564,7 +32564,7 @@
         <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970245</v>
       </c>
       <c r="P21" t="n">
         <v>447.6103584002927</v>
@@ -33032,7 +33032,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
         <v>609.6478166837925</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -34466,7 +34466,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987481</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,13 +35182,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O8" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="P8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="L9" t="n">
-        <v>6.598225711743296</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>6.876045741711437</v>
@@ -35267,7 +35267,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35337,13 +35337,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="M10" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="N10" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="O10" t="n">
-        <v>6.598225711743297</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>344.7755224719885</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
         <v>337.1912865554005</v>
@@ -35428,10 +35428,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>301.4026310079041</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>344.7755224719885</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554005</v>
@@ -35656,7 +35656,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>772.0067767891697</v>
       </c>
       <c r="O14" t="n">
         <v>508.0530008882191</v>
@@ -35668,7 +35668,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
@@ -35884,7 +35884,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>387.7996127595851</v>
       </c>
       <c r="L17" t="n">
         <v>455.5901143923322</v>
@@ -35905,7 +35905,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>110.2215247464094</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
@@ -36133,13 +36133,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>842.634352386923</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>416.2790411303376</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
         <v>59.61319854222478</v>
@@ -36212,7 +36212,7 @@
         <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525802</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K22" t="n">
         <v>253.0227961629121</v>
@@ -36288,7 +36288,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N22" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O22" t="n">
         <v>349.3282668412323</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554005</v>
@@ -36367,19 +36367,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>895.850364009541</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>675.9826703737854</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K25" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M25" t="n">
         <v>394.6085160120764</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>625.6491519212391</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36616,7 +36616,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
         <v>478.3061046004592</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>475.387620108525</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>897.0044190605952</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265652</v>
@@ -37075,13 +37075,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>588.1470273011223</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>825.5292215990248</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37303,16 +37303,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>939.1244131184363</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
@@ -37321,13 +37321,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>675.9826703737858</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>939.1244131184363</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
@@ -37558,13 +37558,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>675.9826703737863</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165881</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37707,7 +37707,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120761</v>
       </c>
       <c r="N40" t="n">
         <v>391.8320827861327</v>
@@ -37792,16 +37792,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>418.5312714465564</v>
+        <v>425.2462182282744</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>288.1396900515324</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38023,10 +38023,10 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>985.3243066113677</v>
+        <v>985.3243066113642</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>649.6545244957209</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
@@ -38114,7 +38114,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127265</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
